--- a/WEEK-00/measure.xlsx
+++ b/WEEK-00/measure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WSU-play\Stats419\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git_\WSU_STATS419_FALL2020\WEEK-00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EFB3D35-A58C-43D1-89DA-66ADE5B02D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAEAEB6-1CE8-4D44-9B21-A98A8EA0F79D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6315" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="covariates" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="66">
   <si>
     <t>data_collector</t>
   </si>
@@ -179,279 +179,15 @@
     <t>42cf3ac3c39863c610fd0c41888fbcf4</t>
   </si>
   <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf5</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf6</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf7</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf8</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf9</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf10</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf11</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf12</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf13</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf14</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf15</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf16</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf17</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf18</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf19</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf20</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf21</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf22</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf23</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf24</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf25</t>
-  </si>
-  <si>
-    <t>42cf3ac3c39863c610fd0c41888fbcf26</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e352</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e353</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e354</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e355</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e356</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e357</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e358</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e359</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e360</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e361</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e362</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e363</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e364</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e365</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e366</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e367</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e368</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e369</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e370</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e371</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e372</t>
-  </si>
-  <si>
-    <t>8545c7da3bff6d5e778c19a8e759e373</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa77</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa78</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa79</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa80</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa81</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa82</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa83</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa84</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa85</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa86</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa87</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa88</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa89</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa90</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa91</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa92</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa93</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa94</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa95</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa96</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa97</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa98</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0eeb85d58ab4b0dee8fe59e66fd1aa99</t>
-  </si>
-  <si>
     <t>1914e0a159363f777885a7f1faca745c</t>
   </si>
   <si>
     <t>b571d735f163b7bc0d011649a9577981</t>
   </si>
   <si>
-    <t>b571d735f163b7bc0d011649a9577982</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9577983</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9577984</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9577985</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9577986</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9577987</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9577988</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9577989</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9577990</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9577991</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9577992</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9577993</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9577994</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9577995</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9577996</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9577997</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9577998</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9577999</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9578000</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9578001</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9578002</t>
-  </si>
-  <si>
-    <t>b571d735f163b7bc0d011649a9578003</t>
-  </si>
-  <si>
     <t>possible ancestry may include: german</t>
   </si>
   <si>
@@ -461,72 +197,6 @@
     <t>94d8bb7c1e4e9711d4e3bbb0615216e5</t>
   </si>
   <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e6</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e7</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e8</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e9</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e10</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e11</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e12</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e13</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e14</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e15</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e16</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e17</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e18</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e19</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e20</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e21</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e22</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e23</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e24</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e25</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e26</t>
-  </si>
-  <si>
-    <t>94d8bb7c1e4e9711d4e3bbb0615216e27</t>
-  </si>
-  <si>
     <t>hispanic</t>
   </si>
   <si>
@@ -537,72 +207,6 @@
   </si>
   <si>
     <t>aa0f777f2621c645eb8ebc33644c1fc8</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc9</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc10</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc11</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc12</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc13</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc14</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc15</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc16</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc17</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc18</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc19</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc20</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc21</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc22</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc23</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc24</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc25</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc26</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc27</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc28</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc29</t>
-  </si>
-  <si>
-    <t>aa0f777f2621c645eb8ebc33644c1fc30</t>
   </si>
   <si>
     <t>hazel</t>
@@ -621,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,6 +271,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -688,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -701,15 +312,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1045,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,11 +745,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1144,7 +790,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1185,7 +831,7 @@
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1226,7 +872,7 @@
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1260,15 +906,15 @@
         <v>6</v>
       </c>
       <c r="M5" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
-        <v>96</v>
+      <c r="B6" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -1308,8 +954,8 @@
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
-        <v>119</v>
+      <c r="B7" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -1342,15 +988,15 @@
         <v>6</v>
       </c>
       <c r="M7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
-        <v>120</v>
+      <c r="B8" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -1390,8 +1036,8 @@
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="B9" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -1421,18 +1067,18 @@
         <v>10</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="M9" t="s">
-        <v>195</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
-        <v>169</v>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -1462,18 +1108,18 @@
         <v>10</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>196</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
-        <v>171</v>
+      <c r="B11" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -1485,7 +1131,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>17</v>
@@ -1503,10 +1149,10 @@
         <v>10</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="M11" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1519,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E231"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B234" sqref="B234"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,7 +1589,7 @@
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1960,8 +1606,8 @@
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>52</v>
+      <c r="B26" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>11</v>
@@ -1977,8 +1623,8 @@
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>53</v>
+      <c r="B27" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>
@@ -1994,8 +1640,8 @@
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>54</v>
+      <c r="B28" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>15</v>
@@ -2011,8 +1657,8 @@
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
+      <c r="B29" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>17</v>
@@ -2028,8 +1674,8 @@
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>56</v>
+      <c r="B30" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>15</v>
@@ -2045,8 +1691,8 @@
       <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>57</v>
+      <c r="B31" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>17</v>
@@ -2062,8 +1708,8 @@
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>58</v>
+      <c r="B32" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
@@ -2079,8 +1725,8 @@
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>59</v>
+      <c r="B33" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>17</v>
@@ -2096,8 +1742,8 @@
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>60</v>
+      <c r="B34" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>15</v>
@@ -2113,8 +1759,8 @@
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>61</v>
+      <c r="B35" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>17</v>
@@ -2130,8 +1776,8 @@
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>62</v>
+      <c r="B36" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>15</v>
@@ -2147,8 +1793,8 @@
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>63</v>
+      <c r="B37" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>17</v>
@@ -2164,8 +1810,8 @@
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>64</v>
+      <c r="B38" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>11</v>
@@ -2181,8 +1827,8 @@
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>65</v>
+      <c r="B39" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>15</v>
@@ -2198,8 +1844,8 @@
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>66</v>
+      <c r="B40" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>17</v>
@@ -2215,8 +1861,8 @@
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>67</v>
+      <c r="B41" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>15</v>
@@ -2232,8 +1878,8 @@
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>68</v>
+      <c r="B42" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>17</v>
@@ -2249,8 +1895,8 @@
       <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>69</v>
+      <c r="B43" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>15</v>
@@ -2266,8 +1912,8 @@
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>70</v>
+      <c r="B44" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>17</v>
@@ -2283,8 +1929,8 @@
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>71</v>
+      <c r="B45" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>11</v>
@@ -2300,8 +1946,8 @@
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>72</v>
+      <c r="B46" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>15</v>
@@ -2317,8 +1963,8 @@
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>73</v>
+      <c r="B47" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>17</v>
@@ -2352,7 +1998,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>11</v>
@@ -2369,7 +2015,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>11</v>
@@ -2386,7 +2032,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>15</v>
@@ -2403,7 +2049,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>17</v>
@@ -2420,7 +2066,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>15</v>
@@ -2437,7 +2083,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>17</v>
@@ -2454,7 +2100,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>15</v>
@@ -2471,7 +2117,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>17</v>
@@ -2488,7 +2134,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>15</v>
@@ -2505,7 +2151,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>17</v>
@@ -2522,7 +2168,7 @@
         <v>50</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>15</v>
@@ -2539,7 +2185,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>17</v>
@@ -2556,7 +2202,7 @@
         <v>50</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>11</v>
@@ -2573,7 +2219,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>15</v>
@@ -2590,7 +2236,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>17</v>
@@ -2607,7 +2253,7 @@
         <v>50</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>15</v>
@@ -2624,7 +2270,7 @@
         <v>50</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>17</v>
@@ -2641,7 +2287,7 @@
         <v>50</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>15</v>
@@ -2658,7 +2304,7 @@
         <v>50</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>17</v>
@@ -2675,7 +2321,7 @@
         <v>50</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>11</v>
@@ -2692,7 +2338,7 @@
         <v>50</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>15</v>
@@ -2709,7 +2355,7 @@
         <v>50</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>17</v>
@@ -2734,7 +2380,7 @@
       <c r="D71" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="6">
         <v>173</v>
       </c>
     </row>
@@ -2751,7 +2397,7 @@
       <c r="D72" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="6">
         <v>25</v>
       </c>
     </row>
@@ -3117,7 +2763,7 @@
         <v>50</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>11</v>
@@ -3134,7 +2780,7 @@
         <v>50</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>11</v>
@@ -3151,7 +2797,7 @@
         <v>50</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>11</v>
@@ -3168,7 +2814,7 @@
         <v>50</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>15</v>
@@ -3185,7 +2831,7 @@
         <v>50</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>17</v>
@@ -3202,7 +2848,7 @@
         <v>50</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>15</v>
@@ -3219,7 +2865,7 @@
         <v>50</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>17</v>
@@ -3236,7 +2882,7 @@
         <v>50</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>15</v>
@@ -3253,7 +2899,7 @@
         <v>50</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>17</v>
@@ -3270,7 +2916,7 @@
         <v>50</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>15</v>
@@ -3287,7 +2933,7 @@
         <v>50</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>17</v>
@@ -3304,7 +2950,7 @@
         <v>50</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>15</v>
@@ -3321,7 +2967,7 @@
         <v>50</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>17</v>
@@ -3338,7 +2984,7 @@
         <v>50</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>11</v>
@@ -3355,7 +3001,7 @@
         <v>50</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>15</v>
@@ -3372,7 +3018,7 @@
         <v>50</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>17</v>
@@ -3389,7 +3035,7 @@
         <v>50</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>15</v>
@@ -3406,7 +3052,7 @@
         <v>50</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>17</v>
@@ -3423,7 +3069,7 @@
         <v>50</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>15</v>
@@ -3440,7 +3086,7 @@
         <v>50</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>17</v>
@@ -3457,7 +3103,7 @@
         <v>50</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>11</v>
@@ -3474,7 +3120,7 @@
         <v>50</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>15</v>
@@ -3491,7 +3137,7 @@
         <v>50</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>17</v>
@@ -3508,7 +3154,7 @@
         <v>50</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>11</v>
@@ -3525,7 +3171,7 @@
         <v>50</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>11</v>
@@ -3542,7 +3188,7 @@
         <v>50</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>11</v>
@@ -3559,7 +3205,7 @@
         <v>50</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>15</v>
@@ -3576,7 +3222,7 @@
         <v>50</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>17</v>
@@ -3593,7 +3239,7 @@
         <v>50</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>15</v>
@@ -3610,7 +3256,7 @@
         <v>50</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>17</v>
@@ -3627,7 +3273,7 @@
         <v>50</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>15</v>
@@ -3644,7 +3290,7 @@
         <v>50</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>17</v>
@@ -3661,7 +3307,7 @@
         <v>50</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>15</v>
@@ -3678,7 +3324,7 @@
         <v>50</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>17</v>
@@ -3695,7 +3341,7 @@
         <v>50</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>15</v>
@@ -3712,7 +3358,7 @@
         <v>50</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>17</v>
@@ -3729,7 +3375,7 @@
         <v>50</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>11</v>
@@ -3746,7 +3392,7 @@
         <v>50</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>15</v>
@@ -3763,7 +3409,7 @@
         <v>50</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>17</v>
@@ -3780,7 +3426,7 @@
         <v>50</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>15</v>
@@ -3797,7 +3443,7 @@
         <v>50</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>17</v>
@@ -3814,7 +3460,7 @@
         <v>50</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>15</v>
@@ -3831,7 +3477,7 @@
         <v>50</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>17</v>
@@ -3848,7 +3494,7 @@
         <v>50</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>11</v>
@@ -3865,7 +3511,7 @@
         <v>50</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>15</v>
@@ -3882,7 +3528,7 @@
         <v>50</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>17</v>
@@ -3899,7 +3545,7 @@
         <v>50</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>11</v>
@@ -3916,7 +3562,7 @@
         <v>50</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>11</v>
@@ -3933,7 +3579,7 @@
         <v>50</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>11</v>
@@ -3950,7 +3596,7 @@
         <v>50</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>15</v>
@@ -3967,7 +3613,7 @@
         <v>50</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>17</v>
@@ -3984,7 +3630,7 @@
         <v>50</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>15</v>
@@ -4001,7 +3647,7 @@
         <v>50</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>17</v>
@@ -4018,7 +3664,7 @@
         <v>50</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>15</v>
@@ -4035,7 +3681,7 @@
         <v>50</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>17</v>
@@ -4052,7 +3698,7 @@
         <v>50</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>15</v>
@@ -4069,7 +3715,7 @@
         <v>50</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>17</v>
@@ -4086,7 +3732,7 @@
         <v>50</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>15</v>
@@ -4103,7 +3749,7 @@
         <v>50</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>17</v>
@@ -4120,7 +3766,7 @@
         <v>50</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>11</v>
@@ -4137,7 +3783,7 @@
         <v>50</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>15</v>
@@ -4154,7 +3800,7 @@
         <v>50</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>17</v>
@@ -4171,7 +3817,7 @@
         <v>50</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>15</v>
@@ -4188,7 +3834,7 @@
         <v>50</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>17</v>
@@ -4205,7 +3851,7 @@
         <v>50</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>15</v>
@@ -4222,7 +3868,7 @@
         <v>50</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>17</v>
@@ -4239,7 +3885,7 @@
         <v>50</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>11</v>
@@ -4256,7 +3902,7 @@
         <v>50</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>15</v>
@@ -4273,7 +3919,7 @@
         <v>50</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>17</v>
@@ -4290,7 +3936,7 @@
         <v>50</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>11</v>
@@ -4307,7 +3953,7 @@
         <v>50</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>11</v>
@@ -4324,7 +3970,7 @@
         <v>50</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>11</v>
@@ -4341,7 +3987,7 @@
         <v>50</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>15</v>
@@ -4358,7 +4004,7 @@
         <v>50</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>17</v>
@@ -4375,7 +4021,7 @@
         <v>50</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>15</v>
@@ -4392,7 +4038,7 @@
         <v>50</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>17</v>
@@ -4409,7 +4055,7 @@
         <v>50</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>15</v>
@@ -4426,7 +4072,7 @@
         <v>50</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>17</v>
@@ -4443,7 +4089,7 @@
         <v>50</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>15</v>
@@ -4460,7 +4106,7 @@
         <v>50</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>17</v>
@@ -4477,7 +4123,7 @@
         <v>50</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>15</v>
@@ -4494,7 +4140,7 @@
         <v>50</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>17</v>
@@ -4511,7 +4157,7 @@
         <v>50</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>11</v>
@@ -4528,7 +4174,7 @@
         <v>50</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>15</v>
@@ -4545,7 +4191,7 @@
         <v>50</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>17</v>
@@ -4562,7 +4208,7 @@
         <v>50</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>15</v>
@@ -4579,7 +4225,7 @@
         <v>50</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>17</v>
@@ -4596,7 +4242,7 @@
         <v>50</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>15</v>
@@ -4613,7 +4259,7 @@
         <v>50</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>17</v>
@@ -4630,7 +4276,7 @@
         <v>50</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>11</v>
@@ -4647,7 +4293,7 @@
         <v>50</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>15</v>
@@ -4664,7 +4310,7 @@
         <v>50</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>17</v>
@@ -4680,8 +4326,8 @@
       <c r="A186" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B186" s="5" t="s">
-        <v>169</v>
+      <c r="B186" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>11</v>
@@ -4697,8 +4343,8 @@
       <c r="A187" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B187" s="5" t="s">
-        <v>169</v>
+      <c r="B187" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>11</v>
@@ -4714,8 +4360,8 @@
       <c r="A188" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B188" s="5" t="s">
-        <v>169</v>
+      <c r="B188" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>11</v>
@@ -4731,8 +4377,8 @@
       <c r="A189" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B189" s="5" t="s">
-        <v>169</v>
+      <c r="B189" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>15</v>
@@ -4748,8 +4394,8 @@
       <c r="A190" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B190" s="5" t="s">
-        <v>169</v>
+      <c r="B190" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>17</v>
@@ -4765,8 +4411,8 @@
       <c r="A191" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B191" s="5" t="s">
-        <v>169</v>
+      <c r="B191" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>15</v>
@@ -4782,8 +4428,8 @@
       <c r="A192" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B192" s="5" t="s">
-        <v>169</v>
+      <c r="B192" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>17</v>
@@ -4799,8 +4445,8 @@
       <c r="A193" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B193" s="5" t="s">
-        <v>169</v>
+      <c r="B193" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>15</v>
@@ -4816,8 +4462,8 @@
       <c r="A194" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B194" s="5" t="s">
-        <v>169</v>
+      <c r="B194" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>17</v>
@@ -4833,8 +4479,8 @@
       <c r="A195" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B195" s="5" t="s">
-        <v>169</v>
+      <c r="B195" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>15</v>
@@ -4850,8 +4496,8 @@
       <c r="A196" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B196" s="5" t="s">
-        <v>169</v>
+      <c r="B196" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>17</v>
@@ -4867,8 +4513,8 @@
       <c r="A197" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B197" s="5" t="s">
-        <v>169</v>
+      <c r="B197" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>15</v>
@@ -4884,8 +4530,8 @@
       <c r="A198" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B198" s="5" t="s">
-        <v>169</v>
+      <c r="B198" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>17</v>
@@ -4901,8 +4547,8 @@
       <c r="A199" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B199" s="5" t="s">
-        <v>169</v>
+      <c r="B199" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>11</v>
@@ -4918,8 +4564,8 @@
       <c r="A200" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B200" s="5" t="s">
-        <v>169</v>
+      <c r="B200" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>15</v>
@@ -4935,8 +4581,8 @@
       <c r="A201" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B201" s="5" t="s">
-        <v>169</v>
+      <c r="B201" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>17</v>
@@ -4952,8 +4598,8 @@
       <c r="A202" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B202" s="5" t="s">
-        <v>169</v>
+      <c r="B202" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>15</v>
@@ -4969,8 +4615,8 @@
       <c r="A203" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B203" s="5" t="s">
-        <v>169</v>
+      <c r="B203" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>17</v>
@@ -4986,8 +4632,8 @@
       <c r="A204" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B204" s="5" t="s">
-        <v>169</v>
+      <c r="B204" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>15</v>
@@ -5003,8 +4649,8 @@
       <c r="A205" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B205" s="5" t="s">
-        <v>169</v>
+      <c r="B205" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>17</v>
@@ -5020,8 +4666,8 @@
       <c r="A206" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B206" s="5" t="s">
-        <v>169</v>
+      <c r="B206" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>11</v>
@@ -5037,8 +4683,8 @@
       <c r="A207" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B207" s="5" t="s">
-        <v>169</v>
+      <c r="B207" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>15</v>
@@ -5054,8 +4700,8 @@
       <c r="A208" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B208" s="5" t="s">
-        <v>169</v>
+      <c r="B208" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>17</v>
@@ -5072,7 +4718,7 @@
         <v>50</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>11</v>
@@ -5089,7 +4735,7 @@
         <v>50</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>11</v>
@@ -5106,7 +4752,7 @@
         <v>50</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>11</v>
@@ -5123,7 +4769,7 @@
         <v>50</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>15</v>
@@ -5140,7 +4786,7 @@
         <v>50</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>17</v>
@@ -5157,7 +4803,7 @@
         <v>50</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>15</v>
@@ -5174,7 +4820,7 @@
         <v>50</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>17</v>
@@ -5191,7 +4837,7 @@
         <v>50</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>15</v>
@@ -5208,7 +4854,7 @@
         <v>50</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>17</v>
@@ -5225,7 +4871,7 @@
         <v>50</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>15</v>
@@ -5242,7 +4888,7 @@
         <v>50</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>17</v>
@@ -5259,7 +4905,7 @@
         <v>50</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>15</v>
@@ -5276,7 +4922,7 @@
         <v>50</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>17</v>
@@ -5293,7 +4939,7 @@
         <v>50</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>11</v>
@@ -5310,7 +4956,7 @@
         <v>50</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>15</v>
@@ -5327,7 +4973,7 @@
         <v>50</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>186</v>
+        <v>61</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>17</v>
@@ -5344,7 +4990,7 @@
         <v>50</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>15</v>
@@ -5361,7 +5007,7 @@
         <v>50</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>17</v>
@@ -5378,7 +5024,7 @@
         <v>50</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>189</v>
+        <v>61</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>15</v>
@@ -5395,7 +5041,7 @@
         <v>50</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>17</v>
@@ -5412,7 +5058,7 @@
         <v>50</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>11</v>
@@ -5429,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>15</v>
@@ -5446,7 +5092,7 @@
         <v>50</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>17</v>
@@ -5460,6 +5106,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="B25:B47">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B47">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
